--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9BCF5-5275-C340-9F47-B2DA3726CDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C748A3-7F76-B747-8547-460FD51E48AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27000" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
-    <sheet name="보드" sheetId="3" r:id="rId2"/>
-    <sheet name="파일" sheetId="4" r:id="rId3"/>
-    <sheet name="회원" sheetId="8" r:id="rId4"/>
+    <sheet name="파일" sheetId="4" r:id="rId2"/>
+    <sheet name="회원" sheetId="8" r:id="rId3"/>
+    <sheet name="보드" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,22 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>키를 통한 파일 다운로드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /files/{fileKey}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base64 Image 다운로드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /images/{fileKey}/base64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,22 +207,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/users/{userKey}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,23 +219,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/users/{userKey}/boards/attractive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 쓴 게시글 조회 - 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/users/{userKey}/boards/mine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판(board)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 갱신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 갱신 - 프로필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/attractive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 조회 - Base64 Image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 조회 - 다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/files/{fileKey}/download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/files/{fileKey}/base64</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -382,6 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,9 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -728,59 +736,59 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>56</v>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>55</v>
+      <c r="A4" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -800,6 +808,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -816,35 +1040,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -852,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -866,13 +1090,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -880,13 +1104,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -894,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -908,13 +1132,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -922,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -936,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -950,13 +1174,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -964,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -978,13 +1202,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -992,13 +1216,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1006,13 +1230,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1020,13 +1244,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1034,215 +1258,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C748A3-7F76-B747-8547-460FD51E48AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B9DEBC-D240-7D43-AD5D-636516793333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
@@ -259,19 +259,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파일 조회 - Base64 Image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 조회 - 다운로드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/files/{fileKey}/download</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/files/{fileKey}/base64</t>
+    <t>/api/v1.0/files/{fileId}/download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/files/{fileId}/base64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 조회 - base64 image</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -845,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B9DEBC-D240-7D43-AD5D-636516793333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1A98A-CA45-784F-9D3E-879D29335363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -171,42 +171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/boards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/comments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/comments/{commentKey}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/comments/{commentKey}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/comments/{commentKey}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boards/{boardKey}/attractive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,6 +236,50 @@
   </si>
   <si>
     <t>파일 조회 - base64 image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/hide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/comments/{commentKey}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/comments/{commentKey}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/comments/{commentKey}/hide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardKey}/attractive</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -362,13 +370,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,6 +431,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -744,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -755,7 +798,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -797,10 +840,37 @@
       </c>
       <c r="B10" s="3"/>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -822,60 +892,70 @@
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,10 +964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -897,39 +977,44 @@
     <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -940,83 +1025,89 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:XFC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1039,25 +1130,30 @@
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5 16383:16383">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="11"/>
+      <c r="XFC1" s="15"/>
+    </row>
+    <row r="2" spans="1:5 16383:16383">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5 16383:16383">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1068,10 +1164,11 @@
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5 16383:16383">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1082,10 +1179,11 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5 16383:16383">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1096,10 +1194,11 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5 16383:16383">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1110,10 +1209,11 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5 16383:16383">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1124,10 +1224,11 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5 16383:16383">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1138,10 +1239,11 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5 16383:16383">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1152,10 +1254,11 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5 16383:16383">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1166,10 +1269,11 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5 16383:16383">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1180,10 +1284,11 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5 16383:16383">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1194,10 +1299,11 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5 16383:16383">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1208,10 +1314,11 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5 16383:16383">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1222,10 +1329,11 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5 16383:16383">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1236,10 +1344,11 @@
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5 16383:16383">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1250,10 +1359,11 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1264,13 +1374,14 @@
         <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1A98A-CA45-784F-9D3E-879D29335363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB08C2-3DCF-4742-93CC-0772ACCB419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -280,6 +280,58 @@
   </si>
   <si>
     <t>/api/v1.0/boards/{boardKey}/attractive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 - base64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 조회 - 단건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명, 컨텐트 타입, base64 문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Entity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -390,22 +442,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,22 +505,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -783,88 +852,88 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -879,83 +948,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E9" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,131 +1115,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1131,252 +1268,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5 16383:16383">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="11"/>
-      <c r="XFC1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="XFC1" s="8"/>
     </row>
     <row r="2" spans="1:5 16383:16383">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5 16383:16383">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5 16383:16383">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5 16383:16383">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5 16383:16383">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5 16383:16383">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5 16383:16383">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5 16383:16383">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5 16383:16383">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5 16383:16383">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5 16383:16383">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5 16383:16383">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5 16383:16383">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5 16383:16383">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5 16383:16383">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB08C2-3DCF-4742-93CC-0772ACCB419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642159F8-8155-2644-9E18-D48E16AEFD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관심(fave)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 댓글 및 대댓글 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,14 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관심 게시글 조회 - 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 쓴 게시글 조회 - 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판(board)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,38 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/boards/{boardKey}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/comments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/comments/{commentKey}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/comments/{commentKey}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/comments/{commentKey}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardKey}/attractive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 업로드 - base64</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -332,6 +280,146 @@
   </si>
   <si>
     <t>테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Member DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Pageble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원의 관심 게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 회원이 작성한 게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 갱신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pageble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Board DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Pageble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Comment ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/hide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/comments/{commentId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/comments/{commentId}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/comments/{commentId}/hide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Comment ID, Comment DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Comment ID, ReportReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, IsHide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Comment ID, IsHide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Board ID, IsAttractive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/{boardId}/attractive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 게시글 체크 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심(attractive)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 댓글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment DTO, Comment DTO Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,6 +447,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -468,11 +564,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -516,6 +609,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -844,102 +946,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -962,132 +1037,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1101,150 +1182,275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,272 +1459,564 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC17"/>
+  <dimension ref="A1:XFC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5 16383:16383">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6 16383:16383">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="XFC1" s="8"/>
-    </row>
-    <row r="2" spans="1:5 16383:16383">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="XFC1" s="7"/>
+    </row>
+    <row r="2" spans="1:6 16383:16383">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6 16383:16383">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6 16383:16383">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6 16383:16383">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6 16383:16383">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6 16383:16383">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5 16383:16383">
-      <c r="A3" s="2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6 16383:16383">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6 16383:16383">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6 16383:16383">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6 16383:16383">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6 16383:16383">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6 16383:16383">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6 16383:16383">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6 16383:16383">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6 16383:16383">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5 16383:16383">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5 16383:16383">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5 16383:16383">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5 16383:16383">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5 16383:16383">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5 16383:16383">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5 16383:16383">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5 16383:16383">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5 16383:16383">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5 16383:16383">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5 16383:16383">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5 16383:16383">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5 16383:16383">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642159F8-8155-2644-9E18-D48E16AEFD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEEB5F-5AD2-A64B-AE47-DABB6D44BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -589,10 +589,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,21 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -962,13 +962,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -976,31 +976,31 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1123,14 +1123,14 @@
       <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1219,7 +1219,7 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1236,8 +1236,12 @@
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -1252,8 +1256,12 @@
       <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -1268,8 +1276,12 @@
       <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -1284,8 +1296,12 @@
       <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -1300,18 +1316,22 @@
       <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1461,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
   <dimension ref="A1:XFC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1474,13 +1494,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
       <c r="XFC1" s="7"/>
     </row>
     <row r="2" spans="1:6 16383:16383">
@@ -1488,10 +1508,10 @@
       <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1511,7 +1531,7 @@
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="1"/>
@@ -1527,7 +1547,7 @@
       <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="1"/>
@@ -1778,10 +1798,10 @@
       <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="3" t="s">
         <v>45</v>
       </c>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEEB5F-5AD2-A64B-AE47-DABB6D44BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE513811-255A-6542-97DC-603AC27FF953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>Comment DTO, Comment DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 쿼리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1036,7 +1040,7 @@
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1050,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>51</v>
@@ -1064,7 +1068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>54</v>
@@ -1133,8 +1137,11 @@
       <c r="F7" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1150,9 +1157,14 @@
       <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1168,7 +1180,12 @@
       <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1182,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1195,7 +1212,7 @@
     <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1222,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>51</v>
@@ -1223,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1243,7 +1260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1263,7 +1280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1303,7 +1320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1323,7 +1340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -1338,8 +1355,11 @@
       <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1352,10 +1372,17 @@
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1368,10 +1395,17 @@
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1384,10 +1418,17 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1400,10 +1441,17 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1416,10 +1464,17 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -1434,8 +1489,9 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -1450,8 +1506,9 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1466,6 +1523,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE513811-255A-6542-97DC-603AC27FF953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3CB4E-1BA4-2A40-A934-944EE2AD5FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="17600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>File DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>File Entity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -283,18 +279,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Member ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member ID, Member DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 게시글 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -424,6 +412,26 @@
   </si>
   <si>
     <t>select 쿼리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Member Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Member Update profile DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Read DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +990,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1029,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1065,7 +1073,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1079,7 +1087,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1097,7 +1105,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1115,7 +1123,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1135,10 +1143,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1201,14 +1209,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,7 +1245,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1248,10 +1256,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
@@ -1268,10 +1276,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>46</v>
@@ -1288,10 +1296,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
@@ -1308,10 +1316,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>46</v>
@@ -1328,10 +1336,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>46</v>
@@ -1353,10 +1361,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1479,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -1496,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -1513,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1576,7 +1584,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6 16383:16383">
@@ -1587,10 +1595,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1600,13 +1608,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1619,10 +1627,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1632,13 +1640,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1651,10 +1659,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1667,10 +1675,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1683,10 +1691,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1696,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1715,10 +1723,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1731,10 +1739,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1747,10 +1755,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1763,10 +1771,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1779,10 +1787,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1795,10 +1803,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1811,10 +1819,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1824,13 +1832,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1840,13 +1848,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1864,7 +1872,7 @@
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1910,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1920,13 +1928,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1942,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1958,7 +1966,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1974,7 +1982,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1990,7 +1998,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2006,7 +2014,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2022,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2038,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2054,7 +2062,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2070,7 +2078,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2086,7 +2094,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3CB4E-1BA4-2A40-A934-944EE2AD5FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04545D-9864-DC4B-946E-1C9D04D7CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="500" windowWidth="33600" windowHeight="26420" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="105">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,18 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신고(report)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숨김(hide)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>읽음(read)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일(file)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,10 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시판(board)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/members/{memberId}/boards/attractive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1.0/members/{memberId}/boards/mine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board DTO Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>특정 회원의 관심 게시글 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,26 +287,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 조회 - 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pageble</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board ID, Board DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board ID, Pageble</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -367,10 +331,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board ID, Comment ID, Comment DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board ID, Comment ID, ReportReason</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,34 +343,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member ID, Board ID, IsAttractive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members/{memberId}/boards/{boardId}/attractive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 게시글 체크 저장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관심(attractive)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment DTO Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 댓글 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Comment DTO, Comment DTO Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>select 쿼리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -432,6 +372,90 @@
   </si>
   <si>
     <t>File Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/{boardId}/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Board ID, IsLiked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberLikeBoard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 게시글(like boards)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 게시글(my boards)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberMyBoard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토픽 게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Board Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Read DTO, Comment Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Comment ID, Comment Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Comment ID, Comment Update DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -945,88 +969,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="11"/>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -1061,19 +1094,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1081,17 +1114,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1099,17 +1132,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1117,36 +1150,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1154,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1177,19 +1210,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1210,7 +1243,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1233,19 +1266,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1253,19 +1286,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1276,16 +1309,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1293,19 +1326,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1313,19 +1346,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1333,38 +1366,38 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1372,19 +1405,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1398,16 +1431,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1418,19 +1451,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1441,19 +1474,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1464,19 +1497,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1487,13 +1520,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1504,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1521,13 +1554,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1545,17 +1578,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC35"/>
+  <dimension ref="A1:XFC36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1572,19 +1605,19 @@
     <row r="2" spans="1:6 16383:16383">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6 16383:16383">
@@ -1595,10 +1628,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1608,13 +1641,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1623,486 +1656,502 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6 16383:16383">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6 16383:16383">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6 16383:16383">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6 16383:16383">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6 16383:16383">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6 16383:16383">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6 16383:16383">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6 16383:16383">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04545D-9864-DC4B-946E-1C9D04D7CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00AF52-FB62-EB48-924E-65CA0C927B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board Read DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board ID, Board Update DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -456,6 +452,14 @@
   </si>
   <si>
     <t>Board ID, Comment ID, Comment Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Detail Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 상세 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1585,7 @@
   <dimension ref="A1:XFC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1673,13 +1677,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1692,7 +1696,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
@@ -1759,7 +1763,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1775,7 +1779,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1788,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>53</v>
@@ -1804,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00AF52-FB62-EB48-924E-65CA0C927B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED51FC-F898-AD43-9E51-37448E97B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파일 조회 - 단건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 제거</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,10 +367,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>File Read DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1.0/members/{memberId}/boards/like</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MemberMyBoard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -460,6 +448,26 @@
   </si>
   <si>
     <t>게시글 상세 조회 - 단건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 리소스 조회 - 단건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 base64 조회 - 단건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Resource Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Base64 Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 댓글(my comments)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -994,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1002,68 +1010,73 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1072,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1098,19 +1111,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1121,106 +1134,99 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>41</v>
@@ -1232,9 +1238,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1270,19 +1299,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1293,10 +1322,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
@@ -1313,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>41</v>
@@ -1333,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>41</v>
@@ -1353,10 +1382,10 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -1373,10 +1402,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>41</v>
@@ -1388,7 +1417,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>4</v>
@@ -1398,10 +1427,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1524,13 +1553,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1541,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1558,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1584,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
   <dimension ref="A1:XFC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1609,19 +1638,19 @@
     <row r="2" spans="1:6 16383:16383">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6 16383:16383">
@@ -1632,10 +1661,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1645,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1661,13 +1690,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1677,13 +1706,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1693,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1712,10 +1741,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1728,10 +1757,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1744,10 +1773,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1757,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1776,10 +1805,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1792,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1808,10 +1837,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1824,10 +1853,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1840,10 +1869,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1856,10 +1885,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1872,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1885,13 +1914,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1901,13 +1930,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1915,7 +1944,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>4</v>
@@ -1925,7 +1954,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1971,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1981,13 +2010,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2003,7 +2032,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2019,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2035,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2051,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2067,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2083,7 +2112,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2099,7 +2128,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2115,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2131,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2147,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ED51FC-F898-AD43-9E51-37448E97B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA18601-3B4B-AB43-A12C-8F6B0D4F23BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1157,8 +1157,12 @@
       <c r="D4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -1173,8 +1177,12 @@
       <c r="D5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA18601-3B4B-AB43-A12C-8F6B0D4F23BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046375EB-D62E-9349-B24E-F77E917E7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="117">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -431,10 +431,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Comment Read DTO, Comment Read DTO Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board ID, Comment ID, Comment Create DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,6 +464,46 @@
   </si>
   <si>
     <t>나의 댓글(my comments)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 - Multipart - 여러건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 - Multipart - 단건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Entity List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipartFile List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipartFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Topic, Pageble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, ReportReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고(report)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(member)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReport</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -981,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1026,7 +1062,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1053,30 +1089,39 @@
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,15 +1130,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1147,131 +1192,165 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="3" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1619,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC36"/>
+  <dimension ref="A1:XFC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1701,7 +1780,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>95</v>
@@ -1714,13 +1793,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1781,7 +1860,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
@@ -1807,26 +1886,26 @@
     </row>
     <row r="12" spans="1:6 16383:16383">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>99</v>
@@ -1839,13 +1918,13 @@
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>52</v>
@@ -1855,13 +1934,13 @@
     </row>
     <row r="15" spans="1:6 16383:16383">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>52</v>
@@ -1871,13 +1950,13 @@
     </row>
     <row r="16" spans="1:6 16383:16383">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>52</v>
@@ -1887,13 +1966,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>52</v>
@@ -1903,26 +1982,26 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>57</v>
@@ -1933,79 +2012,79 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
@@ -2015,13 +2094,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>65</v>
@@ -2031,109 +2110,109 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>69</v>
@@ -2143,56 +2222,40 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046375EB-D62E-9349-B24E-F77E917E7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1229D-781C-D345-8399-E18F8C543241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53340" yWindow="-240" windowWidth="33600" windowHeight="21100" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -467,22 +467,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파일 업로드 - Multipart - 여러건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드 - Multipart - 단건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Entity List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultipartFile List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MultipartFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,6 +488,10 @@
   </si>
   <si>
     <t>BoardReport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 - Multipart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1089,16 +1077,16 @@
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1130,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1193,48 +1181,52 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
@@ -1245,16 +1237,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>41</v>
@@ -1263,57 +1255,60 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>77</v>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>41</v>
@@ -1325,32 +1320,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1780,7 +1752,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>95</v>
@@ -1860,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1229D-781C-D345-8399-E18F8C543241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD708DB4-0453-0E41-B658-85CAF8B4F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27000" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="115">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -492,6 +492,10 @@
   </si>
   <si>
     <t>파일 업로드 - Multipart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1125,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1192,8 +1196,12 @@
       <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD708DB4-0453-0E41-B658-85CAF8B4F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D3654-FC35-0846-9179-D43C49CC489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27000" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,30 +67,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글(comment)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">게시글 조회 - 목록 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 댓글 조회 - 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 댓글 저장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,10 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/members/{memberId}/boards/mine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 조회 - 다운로드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -283,62 +263,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pageble</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board ID, Pageble</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board ID, Comment ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/comments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/comments/{commentId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/comments/{commentId}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/comments/{commentId}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board ID, Comment ID, ReportReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board ID, IsHide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board ID, Comment ID, IsHide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 게시글 체크 저장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,78 +299,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/members/{memberId}/boards/{boardId}/like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member ID, Board ID, IsLiked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberLikeBoard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 게시글(like boards)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 게시글(my boards)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberFile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardComment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardFile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 게시글 조회 - 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토픽 게시글 조회 - 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board Create DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board Read DTO Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board ID, Board Update DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment Read DTO Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board ID, Comment ID, Comment Create DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board ID, Comment ID, Comment Update DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board Detail Read DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 상세 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -463,39 +327,163 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나의 댓글(my comments)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MultipartFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Board Topic, Pageble</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board ID, ReportReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고(report)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원(member)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BoardReport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 업로드 - Multipart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 신규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Post Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, IsHide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, ReportReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Pageble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Comment ID, Comment Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Comment ID, Comment Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Comment ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Comment ID, ReportReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID, Comment ID, IsHide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Post ID, IsLiked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/hide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments/{commentId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments/{commentId}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/commentss/{commentId}/hide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판(board)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시글(memberPost)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 댓글(memberPostComment)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글(boardPost)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글(postComment)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 게시글 댓글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/posts/comments/mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/posts/{postId}/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/posts/mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/members/{memberId}/boards/posts/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 게시판 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +533,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -634,13 +622,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +689,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,111 +1030,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>29</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1125,7 +1113,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1136,31 +1124,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1168,19 +1156,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1188,19 +1176,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1208,19 +1196,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1228,19 +1216,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1248,38 +1236,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1287,19 +1275,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1310,19 +1298,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1340,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1354,31 +1342,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1386,19 +1374,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1409,16 +1397,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1426,19 +1414,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1446,19 +1434,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1466,38 +1454,38 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1505,19 +1493,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1531,16 +1519,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1551,19 +1539,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1574,19 +1562,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1597,19 +1585,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1620,13 +1608,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1637,13 +1625,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1654,17 +1642,54 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1678,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC35"/>
+  <dimension ref="A1:XFC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1689,35 +1714,35 @@
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="XFC1" s="7"/>
     </row>
     <row r="2" spans="1:6 16383:16383">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6 16383:16383">
@@ -1725,29 +1750,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6 16383:16383">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1757,45 +1782,45 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6 16383:16383">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6 16383:16383">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1805,13 +1830,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1821,13 +1846,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1837,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1853,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1869,13 +1894,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1885,13 +1910,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1901,13 +1926,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1917,13 +1942,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1933,13 +1958,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1952,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1965,13 +1990,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1981,13 +2006,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1995,17 +2020,17 @@
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2013,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2029,29 +2054,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>23</v>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2060,177 +2085,193 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D3654-FC35-0846-9179-D43C49CC489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D1800-0865-6C46-BC66-228164653563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27000" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="-26960" yWindow="500" windowWidth="25600" windowHeight="20500" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="122">
   <si>
     <t>보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -484,6 +484,46 @@
   </si>
   <si>
     <t>관심 게시판 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberBoardService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 게시판 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 게시글 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 게시글 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Post ID, isLiked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardPost Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostComment Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 게시글의 댓글 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -646,6 +686,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -713,8 +762,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,7 +1082,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1112,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1328,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1343,7 +1392,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1469,232 +1518,338 @@
         <v>36</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="3">
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D1800-0865-6C46-BC66-228164653563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384F8C4A-A098-784E-A30F-010C67A5A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26960" yWindow="500" windowWidth="25600" windowHeight="20500" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="26420" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="122">
-  <si>
-    <t>보드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="113">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관심글 체크 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,14 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 신고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 댓글 신고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일(file)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,18 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member ID, Pageble</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 회원의 관심 게시글 조회 - 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 회원이 작성한 게시글 조회 - 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 갱신</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Comment Read DTO Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 상세 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -355,10 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post Read DTO Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -367,10 +331,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post Read DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Post ID, Post Update DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -379,10 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post ID, ReportReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Post ID, Pageble</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,18 +355,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post ID, Comment ID, ReportReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Post ID, Comment ID, IsHide</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member ID, Post ID, IsLiked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1.0/boards/{boardId}/posts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -423,10 +371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/boards/{boardId}/posts/{postId}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -435,14 +379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments/{commentId}/report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/boards/{boardId}/posts/{postId}/commentss/{commentId}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판(board)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,10 +387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원 댓글(memberPostComment)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글(boardPost)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -524,6 +456,38 @@
   </si>
   <si>
     <t>Member ID, Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardPostService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostCommentService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Post ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Post Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Post Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Comment Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 댓글(memberComment)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1081,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1093,58 +1057,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1174,7 +1138,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1185,19 +1149,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1205,19 +1169,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1225,19 +1189,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1245,19 +1209,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1265,19 +1229,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1285,38 +1249,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1324,19 +1288,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1347,19 +1311,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1379,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1392,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1403,19 +1367,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1423,19 +1387,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1443,19 +1407,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1463,19 +1427,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1483,19 +1447,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1503,24 +1467,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="20" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1531,19 +1495,19 @@
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1551,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1567,13 +1531,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1583,13 +1547,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1599,13 +1563,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1615,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1629,20 +1593,20 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1650,19 +1614,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1673,19 +1637,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1696,19 +1660,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1719,19 +1683,19 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1742,19 +1706,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1765,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1782,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1799,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1816,13 +1780,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1833,13 +1797,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1858,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC36"/>
+  <dimension ref="A1:XFC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1873,31 +1837,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="XFC1" s="7"/>
     </row>
     <row r="2" spans="1:6 16383:16383">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6 16383:16383">
@@ -1905,533 +1870,427 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6 16383:16383">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6 16383:16383">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6 16383:16383">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6 16383:16383">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6 16383:16383">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6 16383:16383">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6 16383:16383">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6 16383:16383">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6 16383:16383">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6 16383:16383">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="4">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384F8C4A-A098-784E-A30F-010C67A5A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490970F8-DADA-2444-9C04-0E803CE8E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="26420" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="51200" yWindow="-240" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,18 +67,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 댓글 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 댓글 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 숨김 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 댓글 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,14 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 댓글 및 대댓글 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 댓글 숨김 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -275,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 상세 조회 - 단건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 리소스 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,14 +291,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post Create DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 신규</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,34 +303,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post ID, Post Update DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post ID, IsHide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Post ID, Pageble</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Post ID, Comment ID, Comment Create DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post ID, Comment ID, Comment Update DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post ID, Comment ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post ID, Comment ID, IsHide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1.0/boards/{boardId}/posts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -367,10 +315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/boards/{boardId}/posts/{postId}/hide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,18 +371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관심 게시판 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 게시글 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 쓴 게시글 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Member ID, Post ID, isLiked</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,10 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>내가 쓴 게시글의 댓글 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Member ID, Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -488,6 +416,62 @@
   </si>
   <si>
     <t>회원 댓글(memberComment)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 게시글의 댓글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Post ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board ID, Pageble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Post ID, Post Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Post ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 댓글 신규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Comment ID, Comment Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Comment ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 신규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Post ID, Parent Comment ID, Comment Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Board ID, Post Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 대댓글 신규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 댓글 및 대댓글 조회 - 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member ID, Post ID, Comment Create DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +683,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +707,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,9 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1060,47 +1050,47 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>21</v>
+      <c r="A5" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1108,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1137,31 +1127,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1169,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1189,19 +1179,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1209,19 +1199,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1229,19 +1219,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1249,38 +1239,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1288,19 +1278,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1311,19 +1301,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1344,7 +1334,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1355,31 +1345,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1387,19 +1377,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1410,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1427,19 +1417,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1447,19 +1437,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1467,47 +1457,47 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1515,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1531,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1547,13 +1537,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1563,13 +1553,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1579,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1593,20 +1583,20 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1614,19 +1604,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1640,16 +1630,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1660,19 +1650,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1683,19 +1673,19 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1706,19 +1696,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1729,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1746,13 +1736,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1763,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1780,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1797,13 +1787,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1822,47 +1812,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC30"/>
+  <dimension ref="A1:XFC29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="XFC1" s="7"/>
     </row>
     <row r="2" spans="1:6 16383:16383">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6 16383:16383">
@@ -1870,39 +1860,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6 16383:16383">
-      <c r="A4" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6 16383:16383">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1912,13 +1902,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1928,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1944,13 +1934,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1963,336 +1953,321 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6 16383:16383">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6 16383:16383">
-      <c r="A11" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6 16383:16383">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6 16383:16383">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490970F8-DADA-2444-9C04-0E803CE8E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95684E12-AF76-594F-8CEB-BB86A5BBD501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="-240" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="51220" yWindow="-240" windowWidth="38400" windowHeight="21100" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="117">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>외부 API</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명, 컨텐트 타입, base64 문자열</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,10 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원 게시글(memberPost)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글(boardPost)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -415,10 +407,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원 댓글(memberComment)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 쓴 게시글의 댓글 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -472,6 +460,50 @@
   </si>
   <si>
     <t>Member ID, Post ID, Comment Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 및 서비스 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 테스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 테스트 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 구현(Entity + DTO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시판(memberBoard)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +553,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -594,26 +626,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -649,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,22 +704,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,6 +724,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1058,25 +1067,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
-        <v>94</v>
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
@@ -1084,27 +1093,21 @@
     <row r="6" spans="1:2">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1126,203 +1129,268 @@
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" s="21" customFormat="1"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="G17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1331,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1344,466 +1412,535 @@
     <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
+  <mergeCells count="4">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,459 +1949,523 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC29"/>
+  <dimension ref="A1:XFC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="XFC1" s="7"/>
+      <c r="A1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" spans="1:6 16383:16383">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6 16383:16383">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6 16383:16383">
-      <c r="A4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6 16383:16383">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:6 16383:16383">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:6 16383:16383">
       <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6 16383:16383">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:6 16383:16383">
+      <c r="A9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="XFC9" s="7"/>
+    </row>
+    <row r="10" spans="1:6 16383:16383">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6 16383:16383">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6 16383:16383">
-      <c r="A10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6 16383:16383">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6 16383:16383">
       <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:6 16383:16383">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95684E12-AF76-594F-8CEB-BB86A5BBD501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C42FE1-9A97-7C48-84CF-DC633DB096C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51220" yWindow="-240" windowWidth="38400" windowHeight="21100" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="51200" yWindow="-240" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="124">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 조회 - 단건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,6 +500,38 @@
   </si>
   <si>
     <t>회원 게시판(memberBoard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>METHOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardApiController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberApiController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileApiController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API Type(Restful / Functional)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -701,6 +729,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,14 +750,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1059,41 +1087,41 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
+      <c r="A4" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1101,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1127,15 +1155,16 @@
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="17"/>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1143,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1152,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1161,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1170,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1179,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1188,37 +1217,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6" s="21" customFormat="1"/>
+    <row r="8" spans="1:6" s="13" customFormat="1"/>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1226,19 +1255,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1246,19 +1275,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1266,19 +1295,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1286,19 +1315,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1306,91 +1335,123 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="J18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,26 +1460,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>107</v>
+      <c r="A1" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1426,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1435,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1444,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1453,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1462,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1471,41 +1533,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1513,19 +1575,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1533,19 +1595,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1553,19 +1615,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1573,19 +1635,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1593,354 +1655,426 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="A16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:10">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:10">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:10">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:10">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="16" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="C27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>10</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,27 +2083,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC37"/>
+  <dimension ref="A1:XFC38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="18" t="s">
-        <v>107</v>
+      <c r="A1" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6 16383:16383">
@@ -1977,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1986,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1995,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2004,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -2013,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2022,37 +2157,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="9" spans="1:6 16383:16383">
-      <c r="A9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="XFC9" s="7"/>
     </row>
     <row r="10" spans="1:6 16383:16383">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6 16383:16383">
@@ -2060,25 +2195,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
-      <c r="A12" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
@@ -2086,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2102,13 +2237,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2118,13 +2253,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2134,335 +2269,416 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
+    <row r="25" spans="1:9">
+      <c r="A25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A9:F9"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C42FE1-9A97-7C48-84CF-DC633DB096C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B4770-1D38-4445-873B-84B02FF8E19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="-240" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="48500" windowHeight="26440" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="148">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,18 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/members/{memberId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members/{memberId}/profile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 조회 - 다운로드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 게시글 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,26 +211,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member Create DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member ID, Member Update DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member ID, Member Update profile DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member Read DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members/{memberId}/boards/like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Board Read DTO Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -271,10 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원(member)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 업로드 - Multipart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,38 +291,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/members/{memberId}/boards/posts/comments/mine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members/{memberId}/boards/posts/{postId}/like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members/{memberId}/boards/posts/mine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/members/{memberId}/boards/posts/like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 게시판 조회 - 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MemberService</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberBoardService</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member ID, Post ID, isLiked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BoardPost Read DTO Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,10 +303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Member ID, Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BoardService</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,10 +379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 댓글 및 대댓글 조회 - 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Member ID, Post ID, Comment Create DTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -499,10 +423,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원 게시판(memberBoard)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -515,10 +435,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MemberApiController</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FileApiController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -532,6 +448,179 @@
   </si>
   <si>
     <t>API Type(Restful / Functional)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 조회 - 슬라이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/slice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/paging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(user)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 게시판(userBoard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBoardService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserApiController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}/profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}/boards/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}/boards/posts/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}/boards/posts/mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}/boards/posts/{postId}/like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/users/{userId}/boards/posts/comments/mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Read DTO Slice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 댓글 조회 - 슬라이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments/paging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/boards/{boardId}/posts/{postId}/comments/slice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Read DTO Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Read DTO Slice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Create DTO</t>
+  </si>
+  <si>
+    <t>User Create DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>User Read DTO</t>
+  </si>
+  <si>
+    <t>User ID, User Update DTO</t>
+  </si>
+  <si>
+    <t>User ID, User Update profile DTO</t>
+  </si>
+  <si>
+    <t>User ID, Page</t>
+  </si>
+  <si>
+    <t>User ID, Post ID, isLiked</t>
+  </si>
+  <si>
+    <t>User ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Read DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Update DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile(base64 string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLiked(boolean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pageable</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +844,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,7 +1183,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1095,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1109,19 +1219,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1146,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1156,15 +1266,16 @@
     <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="17" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1172,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1181,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1190,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1199,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1208,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1217,14 +1328,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1235,19 +1346,19 @@
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1255,19 +1366,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1275,19 +1386,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1295,19 +1406,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1315,19 +1426,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1335,24 +1446,24 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="17" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1364,31 +1475,31 @@
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1396,24 +1507,28 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H19" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1424,24 +1539,28 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1460,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1472,15 +1591,17 @@
     <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1488,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1497,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1506,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1515,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1524,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1533,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1544,7 +1665,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1555,19 +1676,19 @@
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1575,19 +1696,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1598,16 +1719,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1618,16 +1739,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1638,16 +1759,16 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1658,246 +1779,234 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="A25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -1905,27 +2014,31 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -1933,27 +2046,31 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -1961,120 +2078,172 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>10</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,9 +2252,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC38"/>
+  <dimension ref="A1:XFC41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -2096,15 +2265,17 @@
     <col min="3" max="3" width="51" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6 16383:16383">
@@ -2112,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2121,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -2130,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2139,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -2148,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2157,13 +2328,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="9" spans="1:6 16383:16383">
       <c r="A9" s="17" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -2175,19 +2346,19 @@
     <row r="10" spans="1:6 16383:16383">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6 16383:16383">
@@ -2195,492 +2366,581 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
-      <c r="A12" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6 16383:16383">
       <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6 16383:16383">
       <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>5</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B4770-1D38-4445-873B-84B02FF8E19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA34447-F6E6-DD40-A1A5-5E9C9436A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="48500" windowHeight="26440" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="48500" windowHeight="26440" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
     <sheet name="파일" sheetId="4" r:id="rId2"/>
-    <sheet name="회원" sheetId="8" r:id="rId3"/>
-    <sheet name="보드" sheetId="3" r:id="rId4"/>
+    <sheet name="인증" sheetId="9" r:id="rId3"/>
+    <sheet name="회원" sheetId="8" r:id="rId4"/>
+    <sheet name="보드" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="160">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -621,6 +622,54 @@
   </si>
   <si>
     <t>Pageable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(login)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthApiController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login Token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth Login DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login Token(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login Name(string), Password(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 토큰 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 인증</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +869,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70B4A5-D1C1-2044-886A-0AE496EA7834}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1201,7 +1253,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1209,13 +1261,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1223,13 +1275,13 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1240,6 +1292,14 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1270,10 +1330,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -1334,14 +1394,14 @@
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1"/>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
@@ -1462,15 +1522,15 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
@@ -1578,11 +1638,242 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573D9961-E10A-344B-9456-DA7BF5BFADE7}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection sqref="A1:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1596,10 +1887,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -1664,14 +1955,14 @@
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
@@ -1792,22 +2083,22 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -1908,15 +2199,15 @@
       <c r="F23" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1"/>
@@ -2250,11 +2541,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
   <dimension ref="A1:XFC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -2270,10 +2561,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -2333,14 +2624,14 @@
       <c r="C7" s="1"/>
     </row>
     <row r="9" spans="1:6 16383:16383">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="XFC9" s="7"/>
     </row>
     <row r="10" spans="1:6 16383:16383">
@@ -2378,22 +2669,22 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
@@ -2476,22 +2767,22 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
@@ -2574,14 +2865,14 @@
       <c r="F25" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA34447-F6E6-DD40-A1A5-5E9C9436A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B425A394-FF35-5A41-A435-FDBB96C91C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="48500" windowHeight="26440" activeTab="2" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
-    <sheet name="파일" sheetId="4" r:id="rId2"/>
-    <sheet name="인증" sheetId="9" r:id="rId3"/>
-    <sheet name="회원" sheetId="8" r:id="rId4"/>
-    <sheet name="보드" sheetId="3" r:id="rId5"/>
+    <sheet name="외부 서비스" sheetId="10" r:id="rId2"/>
+    <sheet name="파일" sheetId="4" r:id="rId3"/>
+    <sheet name="인증" sheetId="9" r:id="rId4"/>
+    <sheet name="회원" sheetId="8" r:id="rId5"/>
+    <sheet name="보드" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="195">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -641,35 +642,505 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Login Token</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1.0/auth/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth Login DTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login Token(string)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login Name(string), Password(string)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 토큰 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로그인 인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileStore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: long
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contentType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: "image/png", "image/jpeg", "plain/text", "*/* 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>storeFilePath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uploadFilePath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fileSize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: long
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expiredTimeUTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: date</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login ID, Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardPost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/sms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthSMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: long
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expiredDateUTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: date</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: long
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expiredDateUTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: date</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 요청 - Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 요청 - SMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/verify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber/emailAddress, authCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 전송 - SMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 전송 - Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileStoreClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType, base64Image, storeDirPath(opt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipartFile, storeDirPath(opt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storedFilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmsSendClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailSendClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber, message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Html 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payload 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenPayload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAddress, html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +1298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,30 +1344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +1363,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,7 +1733,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1261,13 +1741,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1275,13 +1755,13 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1313,11 +1793,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D0B69-3A2D-1A43-A663-095309CE2044}">
+  <dimension ref="A2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A18:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E653F8-7AFE-694F-A8DB-5CDEC2558A92}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A12" sqref="A12:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1330,10 +2089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -1392,476 +2151,264 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6" s="13" customFormat="1"/>
-    <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:G17"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573D9961-E10A-344B-9456-DA7BF5BFADE7}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="133">
+      <c r="A10" s="13"/>
+      <c r="B10" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" s="13" customFormat="1"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,11 +2416,386 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573D9961-E10A-344B-9456-DA7BF5BFADE7}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J36"/>
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="76">
+      <c r="A10" s="13"/>
+      <c r="B10" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1882,15 +2804,15 @@
     <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -1955,105 +2877,62 @@
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
@@ -2064,16 +2943,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
@@ -2083,279 +2962,243 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="6">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="6">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6">
+        <v>5</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J29" s="8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>24</v>
@@ -2364,21 +3207,21 @@
         <v>24</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>112</v>
@@ -2387,7 +3230,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>24</v>
@@ -2401,103 +3244,121 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2505,10 +3366,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>100</v>
@@ -2517,36 +3378,114 @@
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D4686F-A243-C64F-B901-E33899BC9916}">
-  <dimension ref="A1:XFC41"/>
+  <dimension ref="A1:XFC44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2561,10 +3500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -2623,365 +3562,313 @@
       </c>
       <c r="C7" s="1"/>
     </row>
+    <row r="8" spans="1:6 16383:16383">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
     <row r="9" spans="1:6 16383:16383">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6 16383:16383">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="1:6 16383:16383">
+      <c r="A12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="XFC9" s="7"/>
-    </row>
-    <row r="10" spans="1:6 16383:16383">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="XFC12" s="7"/>
+    </row>
+    <row r="13" spans="1:6 16383:16383">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6 16383:16383">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6 16383:16383">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6 16383:16383">
-      <c r="A13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6 16383:16383">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6 16383:16383">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6 16383:16383">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>100</v>
@@ -2990,249 +3877,324 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B425A394-FF35-5A41-A435-FDBB96C91C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE1909F-800F-0041-9B48-DE9DA1343325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="1" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="4" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="203">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -639,18 +639,6 @@
   </si>
   <si>
     <t>AuthApiController</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login Token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 토큰 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 인증</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -804,10 +792,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login ID, Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>User</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -829,6 +813,146 @@
   </si>
   <si>
     <t>AuthSMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 요청 - Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 요청 - SMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileStoreClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType, base64Image, storeDirPath(opt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipartFile, storeDirPath(opt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storedFilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmsSendClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailSendClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber, message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Html 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payload 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenPayload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAddress, html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthSmsService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailAddress, authCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber, authCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthEmailService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 검증 - SMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 코드 검증 - Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/sms/verify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/email/verify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthEmailReadDto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthSmsReadDto</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -925,12 +1049,32 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: date</t>
+      <t xml:space="preserve">: date
+</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthEmail</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isVerified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: boolean</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1027,120 +1171,56 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: date</t>
+      <t xml:space="preserve">: date
+</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/auth/email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailAddress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 코드 요청 - Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 코드 요청 - SMS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 코드 검증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1.0/auth/verify</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber/emailAddress, authCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthService</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 코드 전송 - SMS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 코드 전송 - Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileStoreClient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType, base64Image, storeDirPath(opt)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>multipartFile, storeDirPath(opt)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>storedFilePath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TokenClient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmsSendClient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmailSendClient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토큰 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토큰 검증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber, message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Html 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Payload 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tokenPayload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toAddress, html</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isVerified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: boolean</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 여부 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 연장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/login/extend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 토큰 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1298,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,6 +1471,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1796,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D0B69-3A2D-1A43-A663-095309CE2044}">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1809,7 +1898,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1843,10 +1932,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
@@ -1863,10 +1952,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -1883,7 +1972,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>34</v>
@@ -1897,7 +1986,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1928,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1944,13 +2033,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1960,20 +2049,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2004,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>34</v>
@@ -2017,7 +2106,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="25" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2048,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
@@ -2076,7 +2165,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2159,14 +2248,14 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="133">
       <c r="A10" s="13"/>
       <c r="B10" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -2417,17 +2506,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573D9961-E10A-344B-9456-DA7BF5BFADE7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -2511,29 +2600,29 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="76">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="95">
       <c r="A10" s="13"/>
       <c r="B10" s="30" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="25" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2564,225 +2653,397 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="32"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="33"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
+    <row r="26" spans="1:10">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
+      <c r="B26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="25" t="s">
+      <c r="B27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="6">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="E36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A12:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2794,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2879,7 +3140,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" s="13"/>
     </row>
@@ -3570,13 +3831,13 @@
     <row r="9" spans="1:6 16383:16383">
       <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6 16383:16383">

--- a/docs/mvc-starter 도메인 정의.xlsx
+++ b/docs/mvc-starter 도메인 정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/J.Reo/Documents/dev/workspace-git-spring/mvc-starter/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju-jinyoo/Documents/dev/workspace-git-jujin/mvc-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE1909F-800F-0041-9B48-DE9DA1343325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CCF84-2A35-0345-A6C4-5C884380EB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="26440" activeTab="4" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
+    <workbookView xWindow="51200" yWindow="-240" windowWidth="38400" windowHeight="19880" activeTab="3" xr2:uid="{3D6FD482-1C04-F448-8517-59EBDEE51B15}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="206">
   <si>
     <t>파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1221,6 +1221,18 @@
   </si>
   <si>
     <t>user ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1.0/auth/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1446,30 +1458,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1486,6 +1474,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1822,7 +1834,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1830,13 +1842,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1844,13 +1856,13 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1897,14 +1909,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3"/>
@@ -1985,14 +1997,14 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
@@ -2061,14 +2073,14 @@
       <c r="F12" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
@@ -2105,14 +2117,14 @@
       <c r="F16" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3"/>
@@ -2178,10 +2190,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -2254,21 +2266,21 @@
     </row>
     <row r="10" spans="1:6" ht="133">
       <c r="A10" s="13"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1"/>
     <row r="12" spans="1:6">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2389,15 +2401,15 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
@@ -2506,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573D9961-E10A-344B-9456-DA7BF5BFADE7}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2522,10 +2534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -2608,27 +2620,27 @@
     </row>
     <row r="10" spans="1:6" ht="95">
       <c r="A10" s="13"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2662,7 +2674,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5">
@@ -2678,7 +2690,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="35"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5">
@@ -2694,25 +2706,25 @@
         <v>182</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2746,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="35"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5">
@@ -2762,7 +2774,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="35"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5">
@@ -2778,25 +2790,25 @@
         <v>182</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="35"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="33"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3"/>
@@ -2830,116 +2842,106 @@
         <v>199</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="35"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="26" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>101</v>
@@ -2948,13 +2950,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>34</v>
+        <v>158</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2962,10 +2964,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>101</v>
@@ -2974,13 +2976,13 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2988,10 +2990,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>101</v>
@@ -3000,24 +3002,24 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>34</v>
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="6">
-        <v>5</v>
+      <c r="A36" s="1">
+        <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>101</v>
@@ -3025,24 +3027,76 @@
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>200</v>
+      <c r="E36" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="6">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="6">
+        <v>6</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A12:F12"/>
   </mergeCells>
@@ -3055,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00806A96-FA12-9E42-8A8C-A0B75B8FF27F}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3070,10 +3124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -3155,14 +3209,14 @@
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3291,14 +3345,14 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3"/>
@@ -3399,15 +3453,15 @@
       <c r="F26" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1"/>
@@ -3761,10 +3815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16383:16383">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
@@ -3847,14 +3901,14 @@
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:6 16383:16383">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="XFC12" s="7"/>
     </row>
     <row r="13" spans="1:6 16383:16383">
@@ -3900,14 +3954,14 @@
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6 16383:16383">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
@@ -3998,14 +4052,14 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
@@ -4088,14 +4142,14 @@
       <c r="F28" s="1"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
